--- a/po_analysis_by_asin/B0CGHQ32S2_po_data.xlsx
+++ b/po_analysis_by_asin/B0CGHQ32S2_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,207 +452,207 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>540</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>450</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>420</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>1140</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45334</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>60</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45355</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>1080</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45362</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>340</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45369</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>810</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45390</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>200</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45397</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>400</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45404</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>280</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45411</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>380</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45418</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45425</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>420</v>
+        <v>810</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45432</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45439</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>2600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45453</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>660</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45460</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45467</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45474</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>60</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45481</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45523</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>520</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45530</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>340</v>
+        <v>660</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45537</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45551</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>60</v>
@@ -660,57 +660,105 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45558</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45565</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45572</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>880</v>
+        <v>520</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45579</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>1520</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45586</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45593</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>280</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45607</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B34" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B40" t="n">
         <v>40</v>
       </c>
     </row>
@@ -725,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,89 +795,129 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>1710</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>2230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>1120</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>3440</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>1080</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>860</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>380</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>3060</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45597</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B12" t="n">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B17" t="n">
         <v>40</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CGHQ32S2_po_data.xlsx
+++ b/po_analysis_by_asin/B0CGHQ32S2_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,217 +548,201 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>1080</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45375.99999999999</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>810</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45396.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45403.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45431.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>420</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45438.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>80</v>
+        <v>660</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>2600</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>660</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45480.99999999999</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>60</v>
+        <v>520</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45529.99999999999</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>520</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45536.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>340</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45543.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45557.99999999999</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>60</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45564.99999999999</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>120</v>
+        <v>880</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45571.99999999999</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>320</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45578.99999999999</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>880</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45585.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>1520</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45592.99999999999</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>45599.99999999999</v>
-      </c>
-      <c r="B39" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>45613.99999999999</v>
-      </c>
-      <c r="B40" t="n">
         <v>40</v>
       </c>
     </row>
@@ -854,7 +838,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>2230</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">

--- a/po_analysis_by_asin/B0CGHQ32S2_po_data.xlsx
+++ b/po_analysis_by_asin/B0CGHQ32S2_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -773,7 +774,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -903,6 +904,677 @@
       </c>
       <c r="B17" t="n">
         <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>306</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-265.1317126753455</v>
+      </c>
+      <c r="D2" t="n">
+        <v>931.8511313227455</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>316</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-287.3013247012848</v>
+      </c>
+      <c r="D3" t="n">
+        <v>926.6706314267732</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>326</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-316.94528120609</v>
+      </c>
+      <c r="D4" t="n">
+        <v>907.3462406719774</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>331</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-303.3703042396917</v>
+      </c>
+      <c r="D5" t="n">
+        <v>889.8352399756955</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>333</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-312.0754289023201</v>
+      </c>
+      <c r="D6" t="n">
+        <v>938.7395375808286</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>340</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-243.241097386657</v>
+      </c>
+      <c r="D7" t="n">
+        <v>942.4963228275784</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>350</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-225.1358725965933</v>
+      </c>
+      <c r="D8" t="n">
+        <v>951.9336439257056</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>355</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-228.566466333748</v>
+      </c>
+      <c r="D9" t="n">
+        <v>941.0296049891689</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>358</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-281.8350406055231</v>
+      </c>
+      <c r="D10" t="n">
+        <v>970.5021321457399</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>360</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-285.2502190781477</v>
+      </c>
+      <c r="D11" t="n">
+        <v>979.8166995750727</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>363</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-260.6188418290073</v>
+      </c>
+      <c r="D12" t="n">
+        <v>899.8892409295194</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>365</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-234.7573147876986</v>
+      </c>
+      <c r="D13" t="n">
+        <v>992.6924055820812</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>377</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-195.5116787577065</v>
+      </c>
+      <c r="D14" t="n">
+        <v>979.7235700966877</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>385</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-218.7596105766194</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1031.998209708806</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>387</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-246.0905056304334</v>
+      </c>
+      <c r="D16" t="n">
+        <v>974.5105751258345</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>390</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-212.0099142064886</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1035.946422844443</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>392</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-265.3120267256834</v>
+      </c>
+      <c r="D18" t="n">
+        <v>983.0551212291591</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>395</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-208.189595499503</v>
+      </c>
+      <c r="D19" t="n">
+        <v>989.4110292710169</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>397</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-198.6705430714958</v>
+      </c>
+      <c r="D20" t="n">
+        <v>975.6178597442034</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>399</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-189.9731141498119</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1018.261461381709</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>402</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-238.6310771400062</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1054.807925334758</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>407</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-192.8519375630132</v>
+      </c>
+      <c r="D23" t="n">
+        <v>995.7876047056596</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>409</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-212.1773909458948</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1000.323066589545</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>412</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-218.8183204455203</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1004.902219622803</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>414</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-157.7198036576891</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1028.452438443962</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>417</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-200.3529418860007</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1045.474766135107</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>431</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-182.2409657885033</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1049.170207542033</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>434</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-189.0708806487782</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1036.108812047117</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>436</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-190.1837982848322</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1069.519501346657</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>441</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-194.8823620543813</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1048.390898450136</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>444</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-186.0438057044887</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1009.708132016283</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>446</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-192.4854341581315</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1025.08697960423</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>449</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-154.9431497204609</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1022.296611804549</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>451</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-118.7070641221422</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1059.22274837363</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>454</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-153.1072034043646</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1132.737212424286</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>456</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-134.119120394708</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1046.746455786374</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>461</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-155.7473271030862</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1046.847043556371</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>463</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-118.8924392696067</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1052.219511988268</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>466</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-143.4217166797253</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1114.642831364223</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>468</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-163.5816785553822</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1082.122484093967</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>471</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-123.1470643532558</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1080.68354383696</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>473</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-137.1875936322894</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1052.831874284528</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>476</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-118.0545106740555</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1105.929513142617</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>478</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-58.80921042720917</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1093.940079453008</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>481</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-155.8833745375577</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1041.924899223178</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CGHQ32S2_po_data.xlsx
+++ b/po_analysis_by_asin/B0CGHQ32S2_po_data.xlsx
@@ -917,7 +917,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,16 +936,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -954,12 +944,6 @@
       <c r="B2" t="n">
         <v>306</v>
       </c>
-      <c r="C2" t="n">
-        <v>-265.1317126753455</v>
-      </c>
-      <c r="D2" t="n">
-        <v>931.8511313227455</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -968,12 +952,6 @@
       <c r="B3" t="n">
         <v>316</v>
       </c>
-      <c r="C3" t="n">
-        <v>-287.3013247012848</v>
-      </c>
-      <c r="D3" t="n">
-        <v>926.6706314267732</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -982,12 +960,6 @@
       <c r="B4" t="n">
         <v>326</v>
       </c>
-      <c r="C4" t="n">
-        <v>-316.94528120609</v>
-      </c>
-      <c r="D4" t="n">
-        <v>907.3462406719774</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -996,12 +968,6 @@
       <c r="B5" t="n">
         <v>331</v>
       </c>
-      <c r="C5" t="n">
-        <v>-303.3703042396917</v>
-      </c>
-      <c r="D5" t="n">
-        <v>889.8352399756955</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1010,12 +976,6 @@
       <c r="B6" t="n">
         <v>333</v>
       </c>
-      <c r="C6" t="n">
-        <v>-312.0754289023201</v>
-      </c>
-      <c r="D6" t="n">
-        <v>938.7395375808286</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1024,12 +984,6 @@
       <c r="B7" t="n">
         <v>340</v>
       </c>
-      <c r="C7" t="n">
-        <v>-243.241097386657</v>
-      </c>
-      <c r="D7" t="n">
-        <v>942.4963228275784</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1038,12 +992,6 @@
       <c r="B8" t="n">
         <v>350</v>
       </c>
-      <c r="C8" t="n">
-        <v>-225.1358725965933</v>
-      </c>
-      <c r="D8" t="n">
-        <v>951.9336439257056</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1052,12 +1000,6 @@
       <c r="B9" t="n">
         <v>355</v>
       </c>
-      <c r="C9" t="n">
-        <v>-228.566466333748</v>
-      </c>
-      <c r="D9" t="n">
-        <v>941.0296049891689</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1066,12 +1008,6 @@
       <c r="B10" t="n">
         <v>358</v>
       </c>
-      <c r="C10" t="n">
-        <v>-281.8350406055231</v>
-      </c>
-      <c r="D10" t="n">
-        <v>970.5021321457399</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1080,12 +1016,6 @@
       <c r="B11" t="n">
         <v>360</v>
       </c>
-      <c r="C11" t="n">
-        <v>-285.2502190781477</v>
-      </c>
-      <c r="D11" t="n">
-        <v>979.8166995750727</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1094,12 +1024,6 @@
       <c r="B12" t="n">
         <v>363</v>
       </c>
-      <c r="C12" t="n">
-        <v>-260.6188418290073</v>
-      </c>
-      <c r="D12" t="n">
-        <v>899.8892409295194</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1108,12 +1032,6 @@
       <c r="B13" t="n">
         <v>365</v>
       </c>
-      <c r="C13" t="n">
-        <v>-234.7573147876986</v>
-      </c>
-      <c r="D13" t="n">
-        <v>992.6924055820812</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1122,12 +1040,6 @@
       <c r="B14" t="n">
         <v>377</v>
       </c>
-      <c r="C14" t="n">
-        <v>-195.5116787577065</v>
-      </c>
-      <c r="D14" t="n">
-        <v>979.7235700966877</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1136,12 +1048,6 @@
       <c r="B15" t="n">
         <v>385</v>
       </c>
-      <c r="C15" t="n">
-        <v>-218.7596105766194</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1031.998209708806</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1150,12 +1056,6 @@
       <c r="B16" t="n">
         <v>387</v>
       </c>
-      <c r="C16" t="n">
-        <v>-246.0905056304334</v>
-      </c>
-      <c r="D16" t="n">
-        <v>974.5105751258345</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1164,12 +1064,6 @@
       <c r="B17" t="n">
         <v>390</v>
       </c>
-      <c r="C17" t="n">
-        <v>-212.0099142064886</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1035.946422844443</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1178,12 +1072,6 @@
       <c r="B18" t="n">
         <v>392</v>
       </c>
-      <c r="C18" t="n">
-        <v>-265.3120267256834</v>
-      </c>
-      <c r="D18" t="n">
-        <v>983.0551212291591</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1192,12 +1080,6 @@
       <c r="B19" t="n">
         <v>395</v>
       </c>
-      <c r="C19" t="n">
-        <v>-208.189595499503</v>
-      </c>
-      <c r="D19" t="n">
-        <v>989.4110292710169</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1206,12 +1088,6 @@
       <c r="B20" t="n">
         <v>397</v>
       </c>
-      <c r="C20" t="n">
-        <v>-198.6705430714958</v>
-      </c>
-      <c r="D20" t="n">
-        <v>975.6178597442034</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1220,12 +1096,6 @@
       <c r="B21" t="n">
         <v>399</v>
       </c>
-      <c r="C21" t="n">
-        <v>-189.9731141498119</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1018.261461381709</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1234,12 +1104,6 @@
       <c r="B22" t="n">
         <v>402</v>
       </c>
-      <c r="C22" t="n">
-        <v>-238.6310771400062</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1054.807925334758</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1248,12 +1112,6 @@
       <c r="B23" t="n">
         <v>407</v>
       </c>
-      <c r="C23" t="n">
-        <v>-192.8519375630132</v>
-      </c>
-      <c r="D23" t="n">
-        <v>995.7876047056596</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1262,12 +1120,6 @@
       <c r="B24" t="n">
         <v>409</v>
       </c>
-      <c r="C24" t="n">
-        <v>-212.1773909458948</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1000.323066589545</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1276,12 +1128,6 @@
       <c r="B25" t="n">
         <v>412</v>
       </c>
-      <c r="C25" t="n">
-        <v>-218.8183204455203</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1004.902219622803</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1290,12 +1136,6 @@
       <c r="B26" t="n">
         <v>414</v>
       </c>
-      <c r="C26" t="n">
-        <v>-157.7198036576891</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1028.452438443962</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1304,12 +1144,6 @@
       <c r="B27" t="n">
         <v>417</v>
       </c>
-      <c r="C27" t="n">
-        <v>-200.3529418860007</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1045.474766135107</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1318,12 +1152,6 @@
       <c r="B28" t="n">
         <v>431</v>
       </c>
-      <c r="C28" t="n">
-        <v>-182.2409657885033</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1049.170207542033</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1332,12 +1160,6 @@
       <c r="B29" t="n">
         <v>434</v>
       </c>
-      <c r="C29" t="n">
-        <v>-189.0708806487782</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1036.108812047117</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1346,12 +1168,6 @@
       <c r="B30" t="n">
         <v>436</v>
       </c>
-      <c r="C30" t="n">
-        <v>-190.1837982848322</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1069.519501346657</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1360,12 +1176,6 @@
       <c r="B31" t="n">
         <v>441</v>
       </c>
-      <c r="C31" t="n">
-        <v>-194.8823620543813</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1048.390898450136</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1374,12 +1184,6 @@
       <c r="B32" t="n">
         <v>444</v>
       </c>
-      <c r="C32" t="n">
-        <v>-186.0438057044887</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1009.708132016283</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1388,12 +1192,6 @@
       <c r="B33" t="n">
         <v>446</v>
       </c>
-      <c r="C33" t="n">
-        <v>-192.4854341581315</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1025.08697960423</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1402,12 +1200,6 @@
       <c r="B34" t="n">
         <v>449</v>
       </c>
-      <c r="C34" t="n">
-        <v>-154.9431497204609</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1022.296611804549</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1416,12 +1208,6 @@
       <c r="B35" t="n">
         <v>451</v>
       </c>
-      <c r="C35" t="n">
-        <v>-118.7070641221422</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1059.22274837363</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1430,12 +1216,6 @@
       <c r="B36" t="n">
         <v>454</v>
       </c>
-      <c r="C36" t="n">
-        <v>-153.1072034043646</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1132.737212424286</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1444,12 +1224,6 @@
       <c r="B37" t="n">
         <v>456</v>
       </c>
-      <c r="C37" t="n">
-        <v>-134.119120394708</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1046.746455786374</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1458,12 +1232,6 @@
       <c r="B38" t="n">
         <v>461</v>
       </c>
-      <c r="C38" t="n">
-        <v>-155.7473271030862</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1046.847043556371</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1472,12 +1240,6 @@
       <c r="B39" t="n">
         <v>463</v>
       </c>
-      <c r="C39" t="n">
-        <v>-118.8924392696067</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1052.219511988268</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1486,12 +1248,6 @@
       <c r="B40" t="n">
         <v>466</v>
       </c>
-      <c r="C40" t="n">
-        <v>-143.4217166797253</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1114.642831364223</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1500,12 +1256,6 @@
       <c r="B41" t="n">
         <v>468</v>
       </c>
-      <c r="C41" t="n">
-        <v>-163.5816785553822</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1082.122484093967</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1514,12 +1264,6 @@
       <c r="B42" t="n">
         <v>471</v>
       </c>
-      <c r="C42" t="n">
-        <v>-123.1470643532558</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1080.68354383696</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1528,12 +1272,6 @@
       <c r="B43" t="n">
         <v>473</v>
       </c>
-      <c r="C43" t="n">
-        <v>-137.1875936322894</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1052.831874284528</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1542,12 +1280,6 @@
       <c r="B44" t="n">
         <v>476</v>
       </c>
-      <c r="C44" t="n">
-        <v>-118.0545106740555</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1105.929513142617</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1556,12 +1288,6 @@
       <c r="B45" t="n">
         <v>478</v>
       </c>
-      <c r="C45" t="n">
-        <v>-58.80921042720917</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1093.940079453008</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1569,12 +1295,6 @@
       </c>
       <c r="B46" t="n">
         <v>481</v>
-      </c>
-      <c r="C46" t="n">
-        <v>-155.8833745375577</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1041.924899223178</v>
       </c>
     </row>
   </sheetData>
